--- a/file.xlsx
+++ b/file.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,257 +434,257 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>项目名称</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>合同号</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>项目号</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>产品类型</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>令号</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>业主名称</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>产品名称</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>销售经理</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>外委地点</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>立项时间</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>合同交付日</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>排产时间</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>是否交付</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>所属进度</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>图纸计划</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>完成时间</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>超期</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>预算计划</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>完成时间</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>超期</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>采购计划</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>完成时间</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>超期</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>制造计划</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>完成时间</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>超期</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>检验计划</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>完成时间</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>超期</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>发运计划</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>完成时间</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>超期</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>预警</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>进度/风险提示</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>调整/确定交付日</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>总进度超期</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>超期原因</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>合同金额（万元）</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>罚款关注</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>罚款</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>合同付款方式</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>收款完成</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>待收款性质</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>累计已收款</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>已收款比例</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>未收款</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>已支付</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>可支付余额</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>所属板块</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>国内/海外</t>
         </is>
@@ -684,9 +696,10 @@
           <t>欧冶新疆八钢横移减速电机合同24046</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">87390033 </t>
+          <t>87390033</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -705,44 +718,82 @@
           <t>横移减速电机（一） /横移减速电机（二）</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>2024/10/31</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>2024/08/29</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>2024/09/04</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
           <t>2024/09/11</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
           <t>2024/10/22</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
           <t>2024/10/26</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
           <t>2024/10/31</t>
         </is>
       </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -750,9 +801,10 @@
           <t>酒钢减速机24074</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00260096 </t>
+          <t>00260096</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -771,44 +823,82 @@
           <t>柔传一次减速传动装置</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>2024/12/15</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>2024/08/22</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>2024/08/28</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
           <t>2024/09/09</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
           <t>2024/12/05</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
           <t>2024/12/10</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr">
         <is>
           <t>2024/12/15</t>
         </is>
       </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -816,8 +906,11 @@
           <t>主卷扬减速机24076</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>40180015</v>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>40180015</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -835,44 +928,82 @@
           <t>减速机/制动盘联轴器/鼓型齿联轴器/制动盘组件/制动器 I/II 各1套</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>2024/11/15</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>2024/08/20</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>2024/08/23</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
           <t>2024/08/30</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
           <t>2024/11/08</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
           <t>2024/11/13</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr">
         <is>
           <t>2024/11/15</t>
         </is>
       </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -880,9 +1011,10 @@
           <t>沧州中铁单齿辊减速机24077</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">28390058 </t>
+          <t>28390058</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -901,44 +1033,82 @@
           <t>单齿辊减速机</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>2024/11/05</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>2024/08/22</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>2024/08/28</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
           <t>2024/09/09</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
           <t>2024/10/30</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
           <t>2024/11/03</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr">
         <is>
           <t>2024/11/05</t>
         </is>
       </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -946,9 +1116,10 @@
           <t>秦皇岛宏兴料车车轮备件24078</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">40560044 </t>
+          <t>40560044</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -967,44 +1138,82 @@
           <t>料车前、后车轮组总成</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>2024/11/01</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>2024/08/22</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>2024/08/28</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
           <t>2024/09/09</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
           <t>2024/10/24</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2024/11/09</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr">
         <is>
           <t>2024/11/01</t>
         </is>
       </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1012,9 +1221,10 @@
           <t>福建青拓外齿轴套24079</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">47340008 </t>
+          <t>47340008</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1033,44 +1243,82 @@
           <t>外齿轴套&lt;一&gt;</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>2024/10/15</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>2024/08/23</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>2024/08/28</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
           <t>2024/09/05</t>
         </is>
       </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>2024/10/05</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
           <t>2024/10/10</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr">
         <is>
           <t>2024/10/15</t>
         </is>
       </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1078,12 +1326,17 @@
           <t>山西宏达减速机备件24081</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">A4450007 </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>A4450007</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>24081</t>
@@ -1099,44 +1352,82 @@
           <t>减速器（与19124配对使用）/联轴器（另带40条铰制孔螺栓）/制动器（I型两件，II型一件，与23128配对）</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>2024/11/15</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>2024/08/23</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>2024/08/29</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
           <t>2024/09/06</t>
         </is>
       </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>2024/11/08</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
           <t>2024/11/13</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr">
         <is>
           <t>2024/11/15</t>
         </is>
       </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY1"/>
+  <dimension ref="A1:AY55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,6 +681,3638 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>宁夏建龙智能主令24108</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>24108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76780004 </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24108</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宁夏建龙特钢有限公司 </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>卷扬控制系统</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024/12/30</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2024/11/27</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2024/12/03</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2024/12/10</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2024/12/25</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2024/12/28</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>2024/12/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>常熟市龙腾特种钢圆盘减速器备件24106</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>24106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34030030 </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24106</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">常熟市龙腾特种钢有限公司 </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">减速机  </t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2025/02/25</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2024/11/26</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2024/11/29</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2024/12/10</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025/02/20</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2025/02/23</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2025/02/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 宝钢湛江零碳项目三环减速器24104</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>24104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A5850002 </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24104</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宝钢湛江钢铁有限公司 </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>推钢机减速器 /堆垛机减速器     （N21A120F-3.6-2）</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025/03/20</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2024/10/29</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025/03/12</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2025/03/18</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>2025/03/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 辛集澳森钢铁联轴器24103 </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41590019 </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24103</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辛集市澳森特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>换向器</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024/12/25</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2024/11/14</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2024/11/19</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2024/11/26</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2024/12/20</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2024/12/23</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>2024/12/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>长治潞新卷扬联轴器25004</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">63390003 </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25004</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">长治市潞新钢铁有限公司  </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>高速级联轴器          （含制动轮）</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2025/03/30</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025/01/09</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2025/01/15</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025/03/24</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025/03/28</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>2025/03/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 辛集澳森二烧结一次减速机24123 </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41590020 </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24123</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辛集市澳森特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>烧结一次减速机</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2025/01/09</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2025/01/15</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025/04/22</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>辽宁通鑫转底炉EPC项目-圆盘给料机24125</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>24125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B1630004</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24125</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辽宁通鑫实业有限公司   </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>圆盘给料机     （顺/逆各4）</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2025/01/13</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2025/01/16</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2025/01/24</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025/04/20</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>减速机高速轴24122</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24122</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40450024 </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24122</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>内蒙古亚新隆顺特钢有限公司</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">减速机高速锥齿轮轴 </t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025/03/15</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2025/01/07</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2025/01/13</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2025/01/21</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025/03/10</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025/03/13</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>2025/03/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>敬业槽下3200圆盘项目24121</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>24121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>03940102</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">敬业钢铁有限公司   </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>圆盘给料机</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025/04/10</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2025/01/10</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2025/01/16</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025/04/07</t>
+        </is>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>山西晋钢卷扬联轴器24120</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A1770015</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24120</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">河北东海特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2025/03/30</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2025/01/12</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025/03/22</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025/03/26</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>2025/03/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>广东广青料车车轮25030</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25030</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>50470011</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25030</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">广东广青金属科技有限公司    </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>料车前轮 /料车后轮</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025/05/30</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2025/03/11</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2025/03/14</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2025/03/24</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025/05/24</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2025/05/28</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>2025/05/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>敬业链篦机二次机备件25028</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25028</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>03940103</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25028</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">敬业钢铁有限公司   </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>链蓖机柔传二次机等</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2025/6/20 到货</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2025/03/11</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2025/03/20</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025/06/10</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2025/06/16</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>2025/6/20     到货</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>长天重工桂鑫烧结圆盘给料机25026</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>47340010</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25026</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福建青拓实业股份有限公司-印尼桂鑫 </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>圆盘给料机</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2025/05/20</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2025/03/10</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2025/03/17</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025/05/10</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2025/05/18</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>2025/05/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>广东广青料车车轮25030</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>50470011</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25030</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">广东广青金属科技有限公司    </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>料车前轮 /料车后轮</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2025/05/30</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2025/03/11</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2025/03/14</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2025/03/24</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025/05/24</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2025/05/28</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>2025/05/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>敬业链篦机二次机备件25028</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>03940103</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25028</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">敬业钢铁有限公司   </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>链蓖机柔传二次机等</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2025/6/20 到货</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2025/03/11</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2025/03/20</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025/06/10</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2025/06/16</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>2025/6/20     到货</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>长天重工桂鑫烧结圆盘给料机25026</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>25026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>47340010</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25026</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福建青拓实业股份有限公司-印尼桂鑫 </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>圆盘给料机</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2025/05/20</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2025/03/10</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2025/03/17</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2025/05/10</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2025/05/18</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>2025/05/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>内蒙亚新-减速机高速轴25032</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25032</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40450025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25032</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>内蒙古亚新隆顺特钢有限公司</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>高速锥齿轮轴（带透盖及压板）</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2025/03/14</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2025/03/20</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2025/03/27</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2025/04/25</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2025/04/28</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>默迪卡圆盘联轴器25033</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A1890003</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25033</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PT.MERDEKA TSINGSHAN INDONESIA  </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2025/03/12</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2025/03/18</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>2025/03/25</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2025/04/23</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 辛集澳森一烧结减速机25001 </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41590021 </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25001</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辛集市澳森特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>烧结一次减速装置</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2025/06/20</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2025/03/07</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2025/03/18</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2025/06/10</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2025/06/17</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>2025/06/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>唐山国跃营口烧结项目柔性传动装置25027</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25027</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>00680137</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25027</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日钢营口中板有限公司 </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>烧结柔性传动装置/万向联轴器（备件）</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2025/06/15</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2025/02/28</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2025/03/06</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2025/03/14</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2025/06/06</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2025/06/13</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>2025/06/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>凭祥和发回转支承备件25024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40390046 </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25024</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">越南和发集团榕橘钢铁有限公司  </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>回转支承/回转支承</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2025/5/15</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2025/02/20</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2025/02/26</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2024/03/07</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2025/5/5</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2025/5/10</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>2025/5/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>汉中中科-汉钢氧枪减速机配件25020</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>25020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82840147 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25020</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">陕钢集团汉中钢铁有限责任公司 </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">氧枪减速机低速轴装配总成-按图 </t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2025/06/01</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2025/02/18</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2025/02/21</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2025/5/11</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2025/5/26</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>2025/06/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>东钢料车备件25023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>25023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>58830024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25023</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">唐山智赢商贸有限公司 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">高速联轴器/低速联轴器/料车前轮装配/料车后轮装配 </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2025/5/25</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2025/02/18</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2025/02/21</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2025/5/15</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2025/5/20</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>2025/5/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>昌黎兴国卷扬联轴器25022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49420005 </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25022</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">昌黎县兴国精密机件有限公司 </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2025/05/10</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2025/02/14</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2025/02/19</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2025/02/28</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2025/05/05</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2025/05/08</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>2025/05/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>建龙阿城钢铁烧结机柔性传动二次减速机备件25014</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25014</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">68840011 </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25014</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">建龙阿城钢铁有限公司 </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>二次减速机TFC03.24099F/胀套（含专用工具）</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2025/04/15</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>图纸已发</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2025/02/11</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>2025/02/21</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2025/04/08</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2025/04/13</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>2025/04/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>福建大东海卷扬减速机25007</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>25007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57530036 </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25007</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福建大东海实业集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>减速机 /减速机输出轴端联轴器外齿套</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2025/04/24</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2025/02/11</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2025/02/14</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2025/02/24</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2025/04/18</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2025/04/22</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>2025/04/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>石横特钢柔性传动装置减速机备件25016</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>25016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29250073 </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25016</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">石横特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>链蓖机柔传一次减速机</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2025/01/26</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2025/02/11</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2025/02/20</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2025/03/25</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2025/03/29</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>德信圆盘衬板备件25012</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>25012</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28300039</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25012</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">德信钢铁有限公司 印尼  </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>圆盘给料机套筒全套衬板/刮刀衬板</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2025/04/15</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2025/01/23</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2025/02/06</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>2025/02/17</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2025/04/05</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2025/04/10</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>2025/04/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>上海振翔-宝钢湛江三环减速机25011</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>25011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00870404 </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25011</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宝钢湛江钢铁有限公司  </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>减速器</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2025/5/5</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2025/1/15 </t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025/1/20</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>2025/02/10</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2025/4/28</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2025/5/3</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>2025/5/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>云南万基-云南德胜铁水摆动溜槽用三环减速器25009</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81900105 </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25009</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">云南德胜钒钛新材料有限公司 </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>三环减速机</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2025/5/5</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2025/1/15 </t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025/1/20</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2025/02/10</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2025/4/28</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2025/5/3</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>2025/5/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">阳春新钢铁炼铁厂用三环减速机25008 </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>25008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04380004 </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25008</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">山西通才工贸有限公司 </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>减速机（链蓖机柔性传动装置）</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2025/3/31</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2025/1/1  已发</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025/1/9   线下已发</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>2025/01/20</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2025/03/22</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2025/03/28</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>2025/3/31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>山西中阳转鼓防护门25010</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03980039 </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25010</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">山西中阳钢铁有限公司  </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>防护门（一）/防护门（二）/防护门（三）/防护门（四）</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2025/03/25</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2025/01/16</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2025/01/22</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2025/02/11</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2025/03/18</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2025/03/23</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>2025/03/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>莱芜钢铁集团银山型钢烧结机主减速机24124</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>24124</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40090022 </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24124</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">莱芜钢铁集团银山型钢有限公司  </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>烧结柔性传动装置</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2025/05/15</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2025/01/15</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2025/01/21</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>2025/02/10</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2025/05/05</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2025/05/12</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>2025/05/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">山西通才工贸烧结柔传改造25003 </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>25003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23080004 </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25003</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">山西通才工贸有限公司 </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>烧结柔性传动装置</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2025/3/17       到货</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2025/01/07</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2025/01/09</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>2025/01/20</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2025/03/10</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2025/03/15</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>2025/3/17       到货</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>长治潞新卷扬联轴器25004</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>25004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">63390003 </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25004</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">长治市潞新钢铁有限公司  </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>高速级联轴器          （含制动轮）</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2025/03/30</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2025/01/09</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2025/01/15</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2025/03/24</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2025/03/28</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>2025/03/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 辛集澳森二烧结一次减速机24123 </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>24123</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41590020 </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24123</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辛集市澳森特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>烧结一次减速机</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2025/01/09</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2025/01/15</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2025/04/22</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>辽宁通鑫转底炉EPC项目-圆盘给料机24125</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>24125</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B1630004</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24125</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辽宁通鑫实业有限公司   </t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>圆盘给料机     （顺/逆各4）</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2025/01/13</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2025/01/16</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>2025/01/24</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2025/04/20</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>减速机高速轴24122</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>24122</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40450024 </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24122</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>内蒙古亚新隆顺特钢有限公司</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">减速机高速锥齿轮轴 </t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2025/03/15</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>2025/01/07</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2025/01/13</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>2025/01/21</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2025/03/10</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2025/03/13</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>2025/03/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>敬业槽下3200圆盘项目24121</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>24121</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>03940102</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">敬业钢铁有限公司   </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>圆盘给料机</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2025/04/10</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>2025/01/10</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2025/01/16</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2025/04/07</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>2025/4/10     到货</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>山西晋钢卷扬联轴器24120</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>24120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A1770015</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24120</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">河北东海特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2025/03/30</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>2025/01/12</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2025/03/22</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2025/03/26</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>2025/03/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>唐山国跃铜陵富鑫烧结项目柔性传动装置24117</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>24117</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C8040001 </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24117</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">铜陵市富鑫钢铁有限公司 </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>烧结柔性传动装置</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2024/12/27</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2025/01/03</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>2025/01/13</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2025/04/22</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>2025/04/28</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>小齿轮轴、大齿轮24118</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>24118</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C7960001 </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24118</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>鞍钢股份有限公司</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">小齿轮轴、大齿轮 </t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2025/02/28</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>2024/12/25</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>2025/01/09</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2025/02/23</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>2025/02/26</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>2025/02/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>抱闸制动轮24110</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>24110</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>25660033</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24110</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">天津市新天钢联合特钢有限公司 </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>制动轮</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2024/12/23</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2024/12/27</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>2025/01/10</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>2025/03/03</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>2025/03/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>广西盛隆柔性传动装置24109</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>24109</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>29600139</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24109</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">广西盛隆冶金有限公司 </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>烧结柔性传动装置</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2025/04/20</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>2024/12/11</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2024/12/16</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>2024/12/23</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2025/04/10</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2025/04/17</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>2025/04/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>乌海包钢万腾卷扬联轴器24111</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>24111</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>40250021</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24111</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">乌海市包钢万腾钢铁有限责任公司 </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2025/02/05</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2024/12/05</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2024/12/11</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2024/12/23</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2025/02/03</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>2025/02/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>河北东海特钢卷扬联轴器24112</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>24112</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>41940068</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24112</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">河北东海特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2025/01/22</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2024/12/03</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2024/12/06</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2024/12/16</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2025/01/19</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2025/01/21</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>2025/01/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>宁夏建龙智能主令24108</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>24108</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76780004 </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24108</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宁夏建龙特钢有限公司 </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>卷扬控制系统</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2024/12/30</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2024/11/27</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2024/12/03</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>2024/12/10</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2024/12/25</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>2024/12/28</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>2024/12/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>常熟市龙腾特种钢圆盘减速器备件24106</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>24106</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34030030 </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24106</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">常熟市龙腾特种钢有限公司 </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">减速机  </t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2025/02/25</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2024/11/26</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2024/11/29</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>2024/12/10</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2025/02/20</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>2025/02/23</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>2025/02/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 宝钢湛江零碳项目三环减速器24104</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>24104</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A5850002 </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24104</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宝钢湛江钢铁有限公司 </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>推钢机减速器 /堆垛机减速器     （N21A120F-3.6-2）</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2025/03/20</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>2024/10/29</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2025/03/12</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2025/03/18</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>2025/03/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 辛集澳森钢铁联轴器24103 </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>24103</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41590019 </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24103</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辛集市澳森特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>换向器</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2024/12/25</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2024/11/14</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2024/11/19</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>2024/11/26</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2024/12/20</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2024/12/23</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>2024/12/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">山西皖控减速机24102 </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>24102</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>75440002</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24102</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">山西皖控科技有限公司 </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>烧结柔传一次减速传动装置</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2025/01/15</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>2024/11/07</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2024/11/12</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>2024/10/19</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2025/01/08</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2025/01/13</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>2025/01/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 辛集澳森钢铁联轴器24100 </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>24100</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41590018 </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24100</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辛集市澳森特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>减速机(带铰座总成)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2024/12/20</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>2024/11/06</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2024/11/08</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2024/12/15</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>2024/12/18</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>2024/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 辛集澳森钢铁联轴器24099 </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>24099</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41590017 </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24099</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辛集市澳森特钢集团有限公司 </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>减速机(带铰座总成)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2024/12/20</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2024/11/06</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2024/11/08</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2024/12/15</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>2024/12/18</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>2024/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>吉林建龙钢铁一次减速机修复24095</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>24095</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23480022 </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24095</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">吉林建龙钢铁有限责任公司 </t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">减速机修复 </t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2025/02/15</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>2024/11/05</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2024/11/08</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2024/11/15</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>2025/02/13</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>2025/02/15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
